--- a/bin/config/xlsx/ActionState.xlsx
+++ b/bin/config/xlsx/ActionState.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillPermission" sheetId="2" r:id="rId1"/>
+    <sheet name="ActionState" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>state</t>
+    <t>state_flag</t>
+  </si>
+  <si>
+    <t>state_tip</t>
   </si>
   <si>
     <t>uint32</t>
@@ -997,7 +1000,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1010,65 +1013,65 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">

--- a/bin/config/xlsx/ActionState.xlsx
+++ b/bin/config/xlsx/ActionState.xlsx
@@ -32,7 +32,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>state_flag</t>
+    <t>state_mode</t>
   </si>
   <si>
     <t>state_tip</t>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/bin/config/xlsx/ActionState.xlsx
+++ b/bin/config/xlsx/ActionState.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>constants_name</t>
   </si>
   <si>
     <t>state_mode</t>
@@ -42,6 +45,18 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>kActorActionUseSkill</t>
+  </si>
+  <si>
+    <t>kActorActionJoinFollow</t>
+  </si>
+  <si>
+    <t>kActorActionMountActor</t>
+  </si>
+  <si>
+    <t>kActorActionUnmountActor</t>
   </si>
 </sst>
 </file>
@@ -665,8 +680,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,7 +765,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -997,15 +1015,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,135 +1034,177 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
